--- a/biology/Zoologie/Femelle_dominante/Femelle_dominante.xlsx
+++ b/biology/Zoologie/Femelle_dominante/Femelle_dominante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En zoologie, la femelle dominante, ou femelle alpha, est un individu d'un groupe d'animaux que les autres membres suivent, et auquel ils obéissent ou se soumettent. 
 </t>
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loup
-Selon l'auteur d'ouvrages naturalistes Maurice Dupérat, « En principe, toutes les femelles adultes peuvent s'accoupler mais, sauf dans les très grandes meutes, seule la femelle alpha s'arroge ce privilège. Celle-ci affirme avec vigueur et autorité sa supériorité, pratiquant une sorte de castration psychologique sur les autres femelles qui n'entrent pas en chaleur[1]. »
-Le philosophe Mark Rowlands évoque l'hypothèse d'un stress social pour expliquer ce phénomène[2].
-Lycaon
-Selon le biologiste Thierry Lodé chez les lycaons (Lycaon pictus) de la savane africaine : « La femelle alpha reste si possessive qu'elle confisque les nouveau-nés d'une femelle au rang moins élevé dans la hiérarchie du groupe. Cette jalousie tyrannique contrôle ainsi le nombre de bouches à nourrir[3]. »
-Pour le psychiatre et éthologue Rolf Schäppi, chez les lycaons, « la femelle alpha s'oppose à toute tentative de copulation d'une autre femelle de la meute. Si une femelle subordonnée réussit tout de même à mettre bas, la femelle dominante tuera ses chiots[4]. »
+          <t>Loup</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'auteur d'ouvrages naturalistes Maurice Dupérat, « En principe, toutes les femelles adultes peuvent s'accoupler mais, sauf dans les très grandes meutes, seule la femelle alpha s'arroge ce privilège. Celle-ci affirme avec vigueur et autorité sa supériorité, pratiquant une sorte de castration psychologique sur les autres femelles qui n'entrent pas en chaleur. »
+Le philosophe Mark Rowlands évoque l'hypothèse d'un stress social pour expliquer ce phénomène.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Canidés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lycaon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le biologiste Thierry Lodé chez les lycaons (Lycaon pictus) de la savane africaine : « La femelle alpha reste si possessive qu'elle confisque les nouveau-nés d'une femelle au rang moins élevé dans la hiérarchie du groupe. Cette jalousie tyrannique contrôle ainsi le nombre de bouches à nourrir. »
+Pour le psychiatre et éthologue Rolf Schäppi, chez les lycaons, « la femelle alpha s'oppose à toute tentative de copulation d'une autre femelle de la meute. Si une femelle subordonnée réussit tout de même à mettre bas, la femelle dominante tuera ses chiots. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Femelle_dominante</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Femelle_dominante</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Autres mammifères</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les groupes d'éléphants et de suricates sont menés et gouvernés par une femelle dominante.
 </t>
